--- a/GameMaster/GameDesign/详细方案/人员.xlsx
+++ b/GameMaster/GameDesign/详细方案/人员.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DC7FE-15B3-4A80-BC73-58C5E61F2F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A1804-CC1E-4EE7-8B0C-9E916A976CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>简单形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,62 @@
   </si>
   <si>
     <t>招募站（招募系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营监视者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始三人之中的某个人，隐藏属性，可能会离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募成功的判断条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100（成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核状态，重新捏脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个值低于程度时，能招募</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,9 +466,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,6 +479,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,16 +503,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101369</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -479,7 +535,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="4705350"/>
+          <a:off x="10572750" y="2028825"/>
           <a:ext cx="4876800" cy="2454044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -755,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P49"/>
+  <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,10 +830,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -804,6 +860,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
@@ -840,7 +899,7 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M9" t="s">
@@ -854,6 +913,12 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
@@ -874,7 +939,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L15" t="s">
@@ -882,206 +947,272 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
       <c r="L16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="13" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="14" t="s">
+    <row r="26" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="14" t="s">
+    <row r="27" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="28" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="13"/>
+      <c r="F30" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="13"/>
+      <c r="F31" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="13"/>
+      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="13"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="S38" t="s">
+        <v>73</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S39" t="s">
+        <v>74</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/详细方案/人员.xlsx
+++ b/GameMaster/GameDesign/详细方案/人员.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A1804-CC1E-4EE7-8B0C-9E916A976CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE1F360-6B70-43A3-B5DF-D03405FD13F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="1650" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="B2:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/GameDesign/详细方案/人员.xlsx
+++ b/GameMaster/GameDesign/详细方案/人员.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE1F360-6B70-43A3-B5DF-D03405FD13F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25374C-53A2-42AD-9F15-4B90BE4F9DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1650" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1980" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
